--- a/testFile.xlsx
+++ b/testFile.xlsx
@@ -5,22 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shus\Programing\Ruby\excel manipulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shus\Programing\Ruby\ruby_excel_projekat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDCC7C2-4993-437B-B5A9-0DF2408C682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75136FEC-7AB5-45DC-B7EB-6CF8AB981E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23820" yWindow="765" windowWidth="20790" windowHeight="13470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -28,16 +37,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>asdf</t>
+    <t>prva</t>
   </si>
   <si>
-    <t>a</t>
+    <t>druba</t>
   </si>
   <si>
-    <t>as</t>
+    <t xml:space="preserve">treca </t>
   </si>
   <si>
-    <t>asd</t>
+    <t>cetvrta</t>
   </si>
 </sst>
 </file>
@@ -357,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -367,26 +376,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62827A84-9472-4925-BFCC-E57EA79B8D91}">
-  <dimension ref="B5:E7"/>
+  <dimension ref="B5:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
       <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -394,13 +403,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -408,13 +417,55 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>2345</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>111</v>
+      </c>
+      <c r="E10">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
